--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H2">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I2">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J2">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N2">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O2">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P2">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q2">
-        <v>27.18921320177541</v>
+        <v>84.81028676757845</v>
       </c>
       <c r="R2">
-        <v>27.18921320177541</v>
+        <v>763.2925809082059</v>
       </c>
       <c r="S2">
-        <v>0.008729465336798827</v>
+        <v>0.01691524305851022</v>
       </c>
       <c r="T2">
-        <v>0.008729465336798827</v>
+        <v>0.02225394121917977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H3">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I3">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J3">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N3">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P3">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q3">
-        <v>234.7258736119902</v>
+        <v>691.3535603234635</v>
       </c>
       <c r="R3">
-        <v>234.7258736119902</v>
+        <v>6222.182042911171</v>
       </c>
       <c r="S3">
-        <v>0.0753619224704852</v>
+        <v>0.1378890929149455</v>
       </c>
       <c r="T3">
-        <v>0.0753619224704852</v>
+        <v>0.1814089078046906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H4">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I4">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J4">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N4">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O4">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P4">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q4">
-        <v>51.90890861305285</v>
+        <v>186.6113570524522</v>
       </c>
       <c r="R4">
-        <v>51.90890861305285</v>
+        <v>1679.50221347207</v>
       </c>
       <c r="S4">
-        <v>0.01666605852276424</v>
+        <v>0.03721926410496907</v>
       </c>
       <c r="T4">
-        <v>0.01666605852276424</v>
+        <v>0.04896620833339995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H5">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I5">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J5">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N5">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O5">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P5">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q5">
-        <v>62.64226226268249</v>
+        <v>177.8234076488556</v>
       </c>
       <c r="R5">
-        <v>62.64226226268249</v>
+        <v>1600.4106688397</v>
       </c>
       <c r="S5">
-        <v>0.02011214715860335</v>
+        <v>0.03546652507043305</v>
       </c>
       <c r="T5">
-        <v>0.02011214715860335</v>
+        <v>0.04666027921891985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H6">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I6">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J6">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N6">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O6">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P6">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q6">
-        <v>142.0769312315875</v>
+        <v>402.5105968896843</v>
       </c>
       <c r="R6">
-        <v>142.0769312315875</v>
+        <v>2415.063581338106</v>
       </c>
       <c r="S6">
-        <v>0.04561572404250034</v>
+        <v>0.08027993819516055</v>
       </c>
       <c r="T6">
-        <v>0.04561572404250034</v>
+        <v>0.07041164073117508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H7">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J7">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N7">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O7">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P7">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q7">
-        <v>43.13188758299526</v>
+        <v>51.93473960540911</v>
       </c>
       <c r="R7">
-        <v>43.13188758299526</v>
+        <v>467.412656448682</v>
       </c>
       <c r="S7">
-        <v>0.01384807698451072</v>
+        <v>0.01035828054695087</v>
       </c>
       <c r="T7">
-        <v>0.01384807698451072</v>
+        <v>0.01362750541782163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H8">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J8">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N8">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P8">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q8">
-        <v>372.3598001280753</v>
+        <v>423.3598128145649</v>
       </c>
       <c r="R8">
-        <v>372.3598001280753</v>
+        <v>3810.238315331084</v>
       </c>
       <c r="S8">
-        <v>0.1195511596423511</v>
+        <v>0.08443827285467188</v>
       </c>
       <c r="T8">
-        <v>0.1195511596423511</v>
+        <v>0.1110882270066787</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H9">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J9">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N9">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O9">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P9">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q9">
-        <v>82.34623025825447</v>
+        <v>114.2740179913655</v>
       </c>
       <c r="R9">
-        <v>82.34623025825447</v>
+        <v>1028.46616192229</v>
       </c>
       <c r="S9">
-        <v>0.02643837309012488</v>
+        <v>0.02279172566523454</v>
       </c>
       <c r="T9">
-        <v>0.02643837309012488</v>
+        <v>0.02998512770306425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H10">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I10">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J10">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N10">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O10">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P10">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q10">
-        <v>99.37319604680945</v>
+        <v>108.8925969239889</v>
       </c>
       <c r="R10">
-        <v>99.37319604680945</v>
+        <v>980.0333723158999</v>
       </c>
       <c r="S10">
-        <v>0.03190511118728852</v>
+        <v>0.02171841193379621</v>
       </c>
       <c r="T10">
-        <v>0.03190511118728852</v>
+        <v>0.02857306045658446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H11">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I11">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J11">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N11">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O11">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P11">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q11">
-        <v>225.385198922109</v>
+        <v>246.4828717673304</v>
       </c>
       <c r="R11">
-        <v>225.385198922109</v>
+        <v>1478.897230603982</v>
       </c>
       <c r="S11">
-        <v>0.07236297228672969</v>
+        <v>0.04916051866597226</v>
       </c>
       <c r="T11">
-        <v>0.07236297228672969</v>
+        <v>0.04311753168085187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H12">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I12">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J12">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N12">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O12">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P12">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q12">
-        <v>92.99187843147695</v>
+        <v>0.22222226839</v>
       </c>
       <c r="R12">
-        <v>92.99187843147695</v>
+        <v>2.00000041551</v>
       </c>
       <c r="S12">
-        <v>0.02985630269427515</v>
+        <v>4.432178956229311E-05</v>
       </c>
       <c r="T12">
-        <v>0.02985630269427515</v>
+        <v>5.831039472719203E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H13">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I13">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J13">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N13">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O13">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P13">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q13">
-        <v>802.803661204257</v>
+        <v>1.81150379618</v>
       </c>
       <c r="R13">
-        <v>802.803661204257</v>
+        <v>16.30353416562</v>
       </c>
       <c r="S13">
-        <v>0.2577509941435208</v>
+        <v>0.0003613008301430788</v>
       </c>
       <c r="T13">
-        <v>0.2577509941435208</v>
+        <v>0.0004753326575700455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H14">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I14">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J14">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N14">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O14">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P14">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q14">
-        <v>177.5375728393809</v>
+        <v>0.4889642595499999</v>
       </c>
       <c r="R14">
-        <v>177.5375728393809</v>
+        <v>4.40067833595</v>
       </c>
       <c r="S14">
-        <v>0.05700084355436856</v>
+        <v>9.752294930777873E-05</v>
       </c>
       <c r="T14">
-        <v>0.05700084355436856</v>
+        <v>0.000128302618762813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H15">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I15">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J15">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N15">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O15">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P15">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q15">
-        <v>214.2475250671722</v>
+        <v>0.4659378305</v>
       </c>
       <c r="R15">
-        <v>214.2475250671722</v>
+        <v>4.1934404745</v>
       </c>
       <c r="S15">
-        <v>0.06878707117007316</v>
+        <v>9.293037381964595E-05</v>
       </c>
       <c r="T15">
-        <v>0.06878707117007316</v>
+        <v>0.0001222605592662967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.05547</v>
+      </c>
+      <c r="H16">
+        <v>0.16641</v>
+      </c>
+      <c r="I16">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J16">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.0133305</v>
+      </c>
+      <c r="N16">
+        <v>38.026661</v>
+      </c>
+      <c r="O16">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P16">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q16">
+        <v>1.054669442835</v>
+      </c>
+      <c r="R16">
+        <v>6.328016657010001</v>
+      </c>
+      <c r="S16">
+        <v>0.0002103517232623898</v>
+      </c>
+      <c r="T16">
+        <v>0.0001844945362255873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J17">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.006170333333333</v>
+      </c>
+      <c r="N17">
+        <v>12.018511</v>
+      </c>
+      <c r="O17">
+        <v>0.05496065106112269</v>
+      </c>
+      <c r="P17">
+        <v>0.06019443438116229</v>
+      </c>
+      <c r="Q17">
+        <v>0.1123223330257778</v>
+      </c>
+      <c r="R17">
+        <v>1.010900997232</v>
+      </c>
+      <c r="S17">
+        <v>2.240246597959016E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.947301196618939E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J18">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>32.65736066666667</v>
+      </c>
+      <c r="N18">
+        <v>97.972082</v>
+      </c>
+      <c r="O18">
+        <v>0.4480263330901556</v>
+      </c>
+      <c r="P18">
+        <v>0.490690906813236</v>
+      </c>
+      <c r="Q18">
+        <v>0.9156253067982223</v>
+      </c>
+      <c r="R18">
+        <v>8.240627761184001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001826196468060492</v>
+      </c>
+      <c r="T18">
+        <v>0.0002402570788626385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J19">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.814931666666666</v>
+      </c>
+      <c r="N19">
+        <v>26.444795</v>
+      </c>
+      <c r="O19">
+        <v>0.1209320481029573</v>
+      </c>
+      <c r="P19">
+        <v>0.1324481441462082</v>
+      </c>
+      <c r="Q19">
+        <v>0.2471471774488889</v>
+      </c>
+      <c r="R19">
+        <v>2.22432459704</v>
+      </c>
+      <c r="S19">
+        <v>4.929301311324971E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.485060915436407E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J20">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.399816666666666</v>
+      </c>
+      <c r="N20">
+        <v>25.19945</v>
+      </c>
+      <c r="O20">
+        <v>0.1152370853912109</v>
+      </c>
+      <c r="P20">
+        <v>0.1262108625158624</v>
+      </c>
+      <c r="Q20">
+        <v>0.2355084598222222</v>
+      </c>
+      <c r="R20">
+        <v>2.1195761384</v>
+      </c>
+      <c r="S20">
+        <v>4.697169402510704E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.179664780365813E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J21">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.0133305</v>
+      </c>
+      <c r="N21">
+        <v>38.026661</v>
+      </c>
+      <c r="O21">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P21">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q21">
+        <v>0.5330830850053334</v>
+      </c>
+      <c r="R21">
+        <v>3.198498510032</v>
+      </c>
+      <c r="S21">
+        <v>0.0001063223613187076</v>
+      </c>
+      <c r="T21">
+        <v>9.325283595340782E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.5677325</v>
+      </c>
+      <c r="H22">
+        <v>69.135465</v>
+      </c>
+      <c r="I22">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J22">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.006170333333333</v>
+      </c>
+      <c r="N22">
+        <v>12.018511</v>
+      </c>
+      <c r="O22">
+        <v>0.05496065106112269</v>
+      </c>
+      <c r="P22">
+        <v>0.06019443438116229</v>
+      </c>
+      <c r="Q22">
+        <v>138.4842244321025</v>
+      </c>
+      <c r="R22">
+        <v>830.9053465926149</v>
+      </c>
+      <c r="S22">
+        <v>0.02762040320011971</v>
+      </c>
+      <c r="T22">
+        <v>0.02422520433746751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.5677325</v>
+      </c>
+      <c r="H23">
+        <v>69.135465</v>
+      </c>
+      <c r="I23">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J23">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.65736066666667</v>
+      </c>
+      <c r="N23">
+        <v>97.972082</v>
+      </c>
+      <c r="O23">
+        <v>0.4480263330901556</v>
+      </c>
+      <c r="P23">
+        <v>0.490690906813236</v>
+      </c>
+      <c r="Q23">
+        <v>1128.890907681355</v>
+      </c>
+      <c r="R23">
+        <v>6773.345446088129</v>
+      </c>
+      <c r="S23">
+        <v>0.2251550468435891</v>
+      </c>
+      <c r="T23">
+        <v>0.197478182265434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="H16">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="I16">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="J16">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>18.8429892200866</v>
-      </c>
-      <c r="N16">
-        <v>18.8429892200866</v>
-      </c>
-      <c r="O16">
-        <v>0.2739924740448354</v>
-      </c>
-      <c r="P16">
-        <v>0.2739924740448354</v>
-      </c>
-      <c r="Q16">
-        <v>485.9280266389753</v>
-      </c>
-      <c r="R16">
-        <v>485.9280266389753</v>
-      </c>
-      <c r="S16">
-        <v>0.1560137777156054</v>
-      </c>
-      <c r="T16">
-        <v>0.1560137777156054</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.5677325</v>
+      </c>
+      <c r="H24">
+        <v>69.135465</v>
+      </c>
+      <c r="I24">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J24">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.814931666666666</v>
+      </c>
+      <c r="N24">
+        <v>26.444795</v>
+      </c>
+      <c r="O24">
+        <v>0.1209320481029573</v>
+      </c>
+      <c r="P24">
+        <v>0.1324481441462082</v>
+      </c>
+      <c r="Q24">
+        <v>304.7121998591125</v>
+      </c>
+      <c r="R24">
+        <v>1828.273199154675</v>
+      </c>
+      <c r="S24">
+        <v>0.06077424237033271</v>
+      </c>
+      <c r="T24">
+        <v>0.0533036548818268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.5677325</v>
+      </c>
+      <c r="H25">
+        <v>69.135465</v>
+      </c>
+      <c r="I25">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J25">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.399816666666666</v>
+      </c>
+      <c r="N25">
+        <v>25.19945</v>
+      </c>
+      <c r="O25">
+        <v>0.1152370853912109</v>
+      </c>
+      <c r="P25">
+        <v>0.1262108625158624</v>
+      </c>
+      <c r="Q25">
+        <v>290.362615582375</v>
+      </c>
+      <c r="R25">
+        <v>1742.17569349425</v>
+      </c>
+      <c r="S25">
+        <v>0.05791224631913692</v>
+      </c>
+      <c r="T25">
+        <v>0.05079346563328816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.5677325</v>
+      </c>
+      <c r="H26">
+        <v>69.135465</v>
+      </c>
+      <c r="I26">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J26">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.0133305</v>
+      </c>
+      <c r="N26">
+        <v>38.026661</v>
+      </c>
+      <c r="O26">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P26">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q26">
+        <v>657.2477226580913</v>
+      </c>
+      <c r="R26">
+        <v>2628.990890632365</v>
+      </c>
+      <c r="S26">
+        <v>0.1310867514088394</v>
+      </c>
+      <c r="T26">
+        <v>0.07664873235932528</v>
       </c>
     </row>
   </sheetData>
